--- a/Tables/Regional- Excluded.xlsx
+++ b/Tables/Regional- Excluded.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -940,7 +940,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>R-5 SC</t>
+          <t>R-8 OB</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -950,33 +950,41 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>35.8730705</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>-106.2287672</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>-106.24756</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>6544.740</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr"/>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr"/>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>846</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>846</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR.</t>
+        </is>
+      </c>
       <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr"/>
-      <c r="O5" s="1" t="inlineStr"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>TA-21</t>
+        </is>
+      </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -984,11 +992,19 @@
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
       <c r="R5" s="1" t="inlineStr"/>
-      <c r="S5" s="1" t="inlineStr"/>
-      <c r="T5" s="1" t="inlineStr"/>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -1048,7 +1064,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R-8 OB</t>
+          <t>R-17 OB</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1058,17 +1074,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
+          <t>-106.29259</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>6544.740</t>
+          <t>6921.510</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr"/>
@@ -1079,7 +1095,7 @@
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR.</t>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
@@ -1090,12 +1106,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Pajarito</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr"/>
@@ -1117,22 +1133,22 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-12-14</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-01-13</t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr">
@@ -1157,7 +1173,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1172,7 +1188,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R-17 OB</t>
+          <t>R-20 OB</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1182,17 +1198,17 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>35.85328</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>-106.29259</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>6921.510</t>
+          <t>6694.350</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr"/>
@@ -1203,7 +1219,7 @@
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
@@ -1214,7 +1230,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1241,22 +1257,22 @@
       </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>2005-12-14</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>2006-01-13</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z7" s="1" t="inlineStr">
@@ -1281,7 +1297,7 @@
       </c>
       <c r="AD7" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE7" s="1" t="inlineStr"/>
@@ -1296,7 +1312,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R-20 OB</t>
+          <t>R-22 OB</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1306,17 +1322,17 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>6694.350</t>
+          <t>6650.5</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr"/>
@@ -1327,15 +1343,11 @@
       <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
+          <t>Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR.</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N8" s="1" t="inlineStr"/>
       <c r="O8" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -1355,7 +1367,7 @@
       </c>
       <c r="T8" s="1" t="inlineStr">
         <is>
-          <t>Aquifer updated from MW</t>
+          <t>Aquifer updated from MW, Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U8" s="1" t="inlineStr">
@@ -1365,22 +1377,22 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2000-10-16</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2000-10-16</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -1405,7 +1417,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr"/>
@@ -1420,7 +1432,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-22 OB</t>
+          <t>R-32 OB</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1430,17 +1442,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.24872</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>6650.5</t>
+          <t>6637.630</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr"/>
@@ -1451,11 +1463,15 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR.</t>
+          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="1" t="inlineStr"/>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -1475,7 +1491,7 @@
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>Aquifer updated from MW, Ground Elevation updated from MW</t>
+          <t>Aquifer updated from MW</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
@@ -1485,22 +1501,22 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2000-10-16</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2000-10-16</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1525,7 +1541,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-32 OB</t>
+          <t>R-32 S2</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1563,12 +1579,24 @@
           <t>6637.630</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="inlineStr"/>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="1" t="inlineStr"/>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>931.8</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>934.900</t>
+        </is>
+      </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
           <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
@@ -1597,11 +1625,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T10" s="1" t="inlineStr"/>
       <c r="U10" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1655,138 +1679,6 @@
       <c r="AE10" s="1" t="inlineStr"/>
       <c r="AF10" s="1" t="inlineStr"/>
       <c r="AG10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>R-32 S2</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Regional</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>35.83095</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>-106.24872</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>6637.630</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="inlineStr"/>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>931.8</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>934.900</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="inlineStr"/>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>TA-54</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr"/>
-      <c r="R11" s="1" t="inlineStr"/>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr"/>
-      <c r="U11" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="W11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="X11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Y11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Z11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC11" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD11" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE11" s="1" t="inlineStr"/>
-      <c r="AF11" s="1" t="inlineStr"/>
-      <c r="AG11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -1804,7 +1696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,7 +1850,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Los Alamos and Pajarito Canyons</t>
         </is>
       </c>
       <c r="H7" s="5" t="n"/>
@@ -2000,24 +1892,24 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-5 SC</t>
+          <t>R-8 OB</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>35.8730705</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>-106.2287672</t>
+          <t>-106.24756</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>846 - 846</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -2034,17 +1926,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-8 OB</t>
+          <t>R-17 OB</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
+          <t>-106.29259</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr"/>
@@ -2056,29 +1948,29 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>12/14/05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-17 OB</t>
+          <t>R-20 OB</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>35.85328</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>-106.29259</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr"/>
@@ -2090,29 +1982,29 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>12/14/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-20 OB</t>
+          <t>R-22 OB</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
@@ -2124,29 +2016,29 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>10/16/00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-22 OB</t>
+          <t>R-32 OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.24872</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -2158,19 +2050,19 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>10/16/00</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-32 OB</t>
+          <t>R-32 S2</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2187,7 +2079,7 @@
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>931.8 - 934.9</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -2196,40 +2088,6 @@
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>R-32 S2</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>35.83095</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>-106.24872</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="1" t="inlineStr"/>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>931.8 - 934.9</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
         </is>

--- a/Tables/Regional- Excluded.xlsx
+++ b/Tables/Regional- Excluded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Regional for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Regional Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>2000-10-16</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>10/16/00</t>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Tables/Regional- Excluded.xlsx
+++ b/Tables/Regional- Excluded.xlsx
@@ -1387,12 +1387,12 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>2000-10-16</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">

--- a/Tables/Regional- Excluded.xlsx
+++ b/Tables/Regional- Excluded.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +940,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>R-8 OB</t>
+          <t>R-5 SC</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -950,41 +950,33 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.8730705</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>6544.740</t>
-        </is>
-      </c>
+          <t>-106.2287672</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr"/>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr"/>
-      <c r="J5" s="1" t="inlineStr"/>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR.</t>
-        </is>
-      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr"/>
       <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>TA-21</t>
-        </is>
-      </c>
+      <c r="N5" s="1" t="inlineStr"/>
+      <c r="O5" s="1" t="inlineStr"/>
       <c r="P5" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -992,19 +984,11 @@
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
       <c r="R5" s="1" t="inlineStr"/>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="S5" s="1" t="inlineStr"/>
+      <c r="T5" s="1" t="inlineStr"/>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -1064,7 +1048,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R-17 OB</t>
+          <t>R-8 OB</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1074,17 +1058,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>35.85328</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>-106.29259</t>
+          <t>-106.24756</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>6921.510</t>
+          <t>6544.740</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr"/>
@@ -1095,7 +1079,7 @@
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR.</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
@@ -1106,12 +1090,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr"/>
@@ -1133,22 +1117,22 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>2005-12-14</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>2006-01-13</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr">
@@ -1173,7 +1157,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1188,7 +1172,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R-20 OB</t>
+          <t>R-17 OB</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1198,17 +1182,17 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.29259</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>6694.350</t>
+          <t>6921.510</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr"/>
@@ -1219,7 +1203,7 @@
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
@@ -1230,7 +1214,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1257,22 +1241,22 @@
       </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-12-14</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-01-13</t>
         </is>
       </c>
       <c r="Z7" s="1" t="inlineStr">
@@ -1297,7 +1281,7 @@
       </c>
       <c r="AD7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE7" s="1" t="inlineStr"/>
@@ -1312,7 +1296,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R-22 OB</t>
+          <t>R-20 OB</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1322,17 +1306,17 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>6650.5</t>
+          <t>6694.350</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr"/>
@@ -1343,11 +1327,15 @@
       <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR.</t>
+          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr"/>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -1367,7 +1355,7 @@
       </c>
       <c r="T8" s="1" t="inlineStr">
         <is>
-          <t>Aquifer updated from MW, Ground Elevation updated from MW</t>
+          <t>Aquifer updated from MW</t>
         </is>
       </c>
       <c r="U8" s="1" t="inlineStr">
@@ -1377,22 +1365,22 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -1417,7 +1405,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr"/>
@@ -1432,7 +1420,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-32 OB</t>
+          <t>R-22 OB</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1442,17 +1430,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>6637.630</t>
+          <t>6650.5</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr"/>
@@ -1463,15 +1451,11 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
+          <t>Location info taken from Brass cap survey data from R-22 WCR., Location info taken from Brass cap survey data from R-22 WCR.</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N9" s="1" t="inlineStr"/>
       <c r="O9" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -1491,7 +1475,7 @@
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>Aquifer updated from MW</t>
+          <t>Aquifer updated from MW, Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
@@ -1501,22 +1485,22 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1541,7 +1525,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-32 S2</t>
+          <t>R-32 OB</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1579,24 +1563,12 @@
           <t>6637.630</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+      <c r="F10" s="1" t="inlineStr"/>
       <c r="G10" s="1" t="inlineStr"/>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>931.8</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>934.900</t>
-        </is>
-      </c>
+      <c r="J10" s="1" t="inlineStr"/>
+      <c r="K10" s="1" t="inlineStr"/>
       <c r="L10" s="1" t="inlineStr">
         <is>
           <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
@@ -1625,7 +1597,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr"/>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1679,6 +1655,138 @@
       <c r="AE10" s="1" t="inlineStr"/>
       <c r="AF10" s="1" t="inlineStr"/>
       <c r="AG10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>R-32 S2</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>35.83095</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>-106.24872</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>6637.630</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr"/>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>931.8</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>934.900</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr"/>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr"/>
+      <c r="R11" s="1" t="inlineStr"/>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr"/>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="W11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Y11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Z11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE11" s="1" t="inlineStr"/>
+      <c r="AF11" s="1" t="inlineStr"/>
+      <c r="AG11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -1696,7 +1804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1704,12 +1812,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>
@@ -1892,24 +2000,24 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-8 OB</t>
+          <t>R-5 SC</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.8730705</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
+          <t>-106.2287672</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>846 - 846</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1926,17 +2034,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-17 OB</t>
+          <t>R-8 OB</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>35.85328</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>-106.29259</t>
+          <t>-106.24756</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr"/>
@@ -1948,29 +2056,29 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>12/14/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-20 OB</t>
+          <t>R-17 OB</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.29259</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr"/>
@@ -1982,29 +2090,29 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>12/14/05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-22 OB</t>
+          <t>R-20 OB</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
@@ -2016,29 +2124,29 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-32 OB</t>
+          <t>R-22 OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -2050,19 +2158,19 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-32 S2</t>
+          <t>R-32 OB</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2079,15 +2187,49 @@
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>R-32 S2</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>35.83095</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>-106.24872</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
           <t>931.8 - 934.9</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
         </is>

--- a/Tables/Regional- Excluded.xlsx
+++ b/Tables/Regional- Excluded.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1814,7 +1814,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -1916,7 +1916,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H5" s="5" t="n"/>
@@ -1958,7 +1958,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Los Alamos and Pajarito Canyons</t>
+          <t>Los Alamos Canyon</t>
         </is>
       </c>
       <c r="H7" s="5" t="n"/>
@@ -2066,53 +2066,27 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>R-17 OB</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>35.85328</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>-106.29259</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>12/14/05</t>
-        </is>
-      </c>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-20 OB</t>
+          <t>R-17 OB</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.29259</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
@@ -2124,29 +2098,29 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>12/14/05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-22 OB</t>
+          <t>R-20 OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.82925</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.23344</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -2158,29 +2132,29 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-32 OB</t>
+          <t>R-22 OB</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.82925</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
+          <t>-106.23344</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr"/>
@@ -2192,19 +2166,19 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R-32 S2</t>
+          <t>R-32 OB</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -2221,26 +2195,61 @@
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>R-32 S2</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>35.83095</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>-106.24872</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr"/>
+      <c r="E16" s="1" t="inlineStr"/>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
           <t>931.8 - 934.9</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
